--- a/data/trans_orig/P14A08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{388BB9AF-08BD-4757-94B5-3FDED2A3F199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36A5C3D-BDA9-41E9-AF32-A306A63E3C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B24C267D-AF03-4481-91E6-E0D4A288362C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8ACFD73-35AA-4EDE-9BC6-E020FCD6FB37}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="121">
   <si>
     <t>Población que recibe medicación o terapia por enfermedad crónica de pulmón en 2012 (Tasa respuesta: 1,61%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>95,77%</t>
   </si>
   <si>
-    <t>86,96%</t>
+    <t>87,19%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,16 +84,16 @@
     <t>93,76%</t>
   </si>
   <si>
-    <t>76,71%</t>
+    <t>77,68%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,22 +105,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,04%</t>
+    <t>12,81%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>23,29%</t>
+    <t>22,32%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,7 +132,7 @@
     <t>81,93%</t>
   </si>
   <si>
-    <t>58,08%</t>
+    <t>61,58%</t>
   </si>
   <si>
     <t>95,71%</t>
@@ -141,16 +141,16 @@
     <t>79,66%</t>
   </si>
   <si>
-    <t>43,71%</t>
+    <t>48,75%</t>
   </si>
   <si>
     <t>81,25%</t>
   </si>
   <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>18,07%</t>
@@ -159,22 +159,22 @@
     <t>4,29%</t>
   </si>
   <si>
-    <t>41,92%</t>
+    <t>38,42%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>56,29%</t>
+    <t>51,25%</t>
   </si>
   <si>
     <t>18,75%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,55 +195,55 @@
     <t>91,36%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -255,7 +255,7 @@
     <t>88,09%</t>
   </si>
   <si>
-    <t>72,5%</t>
+    <t>71,05%</t>
   </si>
   <si>
     <t>96,97%</t>
@@ -270,10 +270,10 @@
     <t>91,48%</t>
   </si>
   <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>11,91%</t>
@@ -282,7 +282,7 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>27,5%</t>
+    <t>28,95%</t>
   </si>
   <si>
     <t>3,74%</t>
@@ -294,52 +294,52 @@
     <t>8,52%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>74,25%</t>
+    <t>74,04%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>73,46%</t>
+    <t>69,6%</t>
   </si>
   <si>
     <t>92,76%</t>
   </si>
   <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>25,75%</t>
+    <t>25,96%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>26,54%</t>
+    <t>30,4%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -357,43 +357,49 @@
     <t>90,44%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>86,24%</t>
+    <t>86,11%</t>
   </si>
   <si>
     <t>92,52%</t>
   </si>
   <si>
-    <t>86,07%</t>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>13,76%</t>
+    <t>13,89%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>13,93%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
   </si>
 </sst>
 </file>
@@ -805,7 +811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2B78CA-E42F-471A-9599-E6C00AE9C7CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0075DDD6-3559-4F2E-A38A-F7967E875532}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1550,7 +1556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CC9D95-2316-4BA6-A237-9F6CA8121B6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F5F8E-6483-411D-8B0B-9B81A3857449}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2175,7 +2181,7 @@
         <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2196,13 @@
         <v>6358</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2205,13 +2211,13 @@
         <v>1938</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2220,13 +2226,13 @@
         <v>8296</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A08-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36A5C3D-BDA9-41E9-AF32-A306A63E3C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6709453-861A-4A54-BF80-1CF8656BC02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8ACFD73-35AA-4EDE-9BC6-E020FCD6FB37}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC150826-FF73-482D-A624-58C3931F2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
     <t>95,77%</t>
   </si>
   <si>
-    <t>87,19%</t>
+    <t>86,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,16 +84,16 @@
     <t>93,76%</t>
   </si>
   <si>
-    <t>77,68%</t>
+    <t>80,74%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,22 +105,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,81%</t>
+    <t>13,52%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>22,32%</t>
+    <t>19,26%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,49 +132,49 @@
     <t>81,93%</t>
   </si>
   <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>48,75%</t>
+    <t>44,12%</t>
   </si>
   <si>
     <t>81,25%</t>
   </si>
   <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>51,25%</t>
+    <t>55,88%</t>
   </si>
   <si>
     <t>18,75%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,211 +195,211 @@
     <t>91,36%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por enfermedad crónica de pulmón en 2015 (Tasa respuesta: 1,63%)</t>
+    <t>Población que recibe medicación o terapia por enfermedad crónica de pulmón en 2016 (Tasa respuesta: 1,63%)</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>96,26%</t>
   </si>
   <si>
-    <t>76,69%</t>
+    <t>83,73%</t>
   </si>
   <si>
     <t>91,48%</t>
   </si>
   <si>
-    <t>81,04%</t>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>96,78%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>18,32%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>13,89%</t>
+    <t>15,37%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0075DDD6-3559-4F2E-A38A-F7967E875532}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0F40A9-3739-4F50-9A18-37F246AEE51C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1556,7 +1556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F5F8E-6483-411D-8B0B-9B81A3857449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386D6D7D-52F5-4358-B21C-4A9865BEB38E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
